--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Combranch.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Combranch.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863FB2ED-AD58-4185-986D-E168D767BB24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10CCA03-2DFF-46AD-B665-5C448B8507D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="description (รายละเอียด)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>company_code</t>
   </si>
   <si>
-    <t>OPR</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>combranch_id</t>
   </si>
   <si>
@@ -51,7 +46,23 @@
     <t>combranch_name_en</t>
   </si>
   <si>
-    <t>000000</t>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)</t>
+  </si>
+  <si>
+    <t>รหัส Family
+ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 100  ตัว</t>
+  </si>
+  <si>
+    <t>สาขาประกันสังคม</t>
   </si>
 </sst>
 </file>
@@ -99,12 +110,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -113,7 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,6 +148,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -441,7 +476,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,40 +504,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131472AF-D01C-4835-A11E-D4D0287F857F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="6" width="18.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Combranch.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Combranch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10CCA03-2DFF-46AD-B665-5C448B8507D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8199796C-AB36-43E4-B098-6AADF17471FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>company_code</t>
   </si>
@@ -52,17 +52,31 @@
     <t>เลขที่  (null)</t>
   </si>
   <si>
-    <t>รหัส Family
-ความยาวไม่เกิน 5 ตัว</t>
-  </si>
-  <si>
-    <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
-  </si>
-  <si>
-    <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 100  ตัว</t>
-  </si>
-  <si>
-    <t>สาขาประกันสังคม</t>
+    <t>OPR</t>
+  </si>
+  <si>
+    <t>สาขาทดสอบ</t>
+  </si>
+  <si>
+    <t>Test branch</t>
+  </si>
+  <si>
+    <t>สาขาประกันสังคม  ความยาวไม่เกิน 6 ตัว</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 200  ตัว</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>รหัสสาขา ความยาวไม่เกิน 5 ตัว</t>
   </si>
 </sst>
 </file>
@@ -139,7 +153,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,7 +161,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,6 +170,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -473,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,8 +537,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D2" s="3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131472AF-D01C-4835-A11E-D4D0287F857F}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" customWidth="1"/>
+    <col min="5" max="6" width="24.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -528,60 +622,299 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131472AF-D01C-4835-A11E-D4D0287F857F}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="6" width="18.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000ECEA0B0AC8A2D4AB0495A7D35AAFC62" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48dcd350a3f2643367fc36e67fdaacc4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="7eb577cd-06c2-4161-a09f-a43f4085119b" xmlns:ns4="b543bc65-d952-4796-87bd-a59ceedf76fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e738d94e1b34e7e8b24fdc7804e2141" ns1:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="7eb577cd-06c2-4161-a09f-a43f4085119b"/>
+    <xsd:import namespace="b543bc65-d952-4796-87bd-a59ceedf76fe"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7eb577cd-06c2-4161-a09f-a43f4085119b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="10" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b543bc65-d952-4796-87bd-a59ceedf76fe" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="13" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="7eb577cd-06c2-4161-a09f-a43f4085119b" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3BB88D-C106-454E-B943-776AB15FE2D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7eb577cd-06c2-4161-a09f-a43f4085119b"/>
+    <ds:schemaRef ds:uri="b543bc65-d952-4796-87bd-a59ceedf76fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C975BF4-7852-433F-8406-3B66D7212104}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D9398A-12C2-4744-9A52-2B383569482D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b543bc65-d952-4796-87bd-a59ceedf76fe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7eb577cd-06c2-4161-a09f-a43f4085119b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Combranch.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Combranch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8199796C-AB36-43E4-B098-6AADF17471FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D101E5D-A88F-42BE-9709-0DA3AECB8228}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>company_code</t>
   </si>
@@ -49,9 +49,6 @@
     <t>รหัสบริษัท</t>
   </si>
   <si>
-    <t>เลขที่  (null)</t>
-  </si>
-  <si>
     <t>OPR</t>
   </si>
   <si>
@@ -77,6 +74,15 @@
   </si>
   <si>
     <t>รหัสสาขา ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +181,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -545,41 +557,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131472AF-D01C-4835-A11E-D4D0287F857F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
     <col min="3" max="3" width="28.6328125" customWidth="1"/>
     <col min="4" max="4" width="37.26953125" customWidth="1"/>
     <col min="5" max="6" width="24.54296875" customWidth="1"/>
+    <col min="8" max="9" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,31 +614,49 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000ECEA0B0AC8A2D4AB0495A7D35AAFC62" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48dcd350a3f2643367fc36e67fdaacc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="7eb577cd-06c2-4161-a09f-a43f4085119b" xmlns:ns4="b543bc65-d952-4796-87bd-a59ceedf76fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e738d94e1b34e7e8b24fdc7804e2141" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -854,15 +888,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -874,6 +899,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C975BF4-7852-433F-8406-3B66D7212104}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3BB88D-C106-454E-B943-776AB15FE2D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -893,14 +926,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C975BF4-7852-433F-8406-3B66D7212104}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D9398A-12C2-4744-9A52-2B383569482D}">
   <ds:schemaRefs>
